--- a/Jogos_da_Semana_FlashScore_2025-03-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-24.xlsx
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H3" t="n">
         <v>3.2</v>
@@ -928,10 +928,10 @@
         <v>7.5</v>
       </c>
       <c r="AJ3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AK3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL3" t="n">
         <v>67</v>
@@ -940,7 +940,7 @@
         <v>6.5</v>
       </c>
       <c r="AN3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO3" t="n">
         <v>10</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-24.xlsx
@@ -710,13 +710,13 @@
         <v>8.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
         <v>8.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P2" t="n">
         <v>3.25</v>
@@ -743,7 +743,7 @@
         <v>3.75</v>
       </c>
       <c r="X2" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Y2" t="n">
         <v>1.44</v>
@@ -862,7 +862,7 @@
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
         <v>1.44</v>
@@ -990,16 +990,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
@@ -1014,18 +1014,18 @@
         <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T4" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
@@ -1042,13 +1042,13 @@
         <v>2.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD4" t="n">
         <v>12</v>
@@ -1057,7 +1057,7 @@
         <v>11</v>
       </c>
       <c r="AF4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG4" t="n">
         <v>23</v>
@@ -1072,13 +1072,13 @@
         <v>6</v>
       </c>
       <c r="AK4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
         <v>51</v>
       </c>
       <c r="AM4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AN4" t="n">
         <v>12</v>
@@ -1096,7 +1096,7 @@
         <v>34</v>
       </c>
       <c r="AS4" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5">
@@ -1131,22 +1131,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
         <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K5" t="n">
         <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
@@ -1222,7 +1222,7 @@
         <v>10</v>
       </c>
       <c r="AN5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO5" t="n">
         <v>13</v>
@@ -1231,7 +1231,7 @@
         <v>41</v>
       </c>
       <c r="AQ5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR5" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-24.xlsx
@@ -692,58 +692,58 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="H2" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J2" t="n">
         <v>1.95</v>
       </c>
       <c r="K2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L2" t="n">
         <v>8.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
         <v>3.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R2" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="S2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="U2" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="V2" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="W2" t="n">
         <v>3.75</v>
       </c>
       <c r="X2" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Y2" t="n">
         <v>1.44</v>
@@ -752,10 +752,10 @@
         <v>2.63</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AC2" t="n">
         <v>5.5</v>
@@ -764,13 +764,13 @@
         <v>5.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF2" t="n">
         <v>8.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH2" t="n">
         <v>41</v>
@@ -788,7 +788,7 @@
         <v>101</v>
       </c>
       <c r="AM2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN2" t="n">
         <v>41</v>
@@ -803,7 +803,7 @@
         <v>67</v>
       </c>
       <c r="AR2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS2" t="n">
         <v>101</v>
@@ -859,10 +859,10 @@
         <v>3.1</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
         <v>1.44</v>
@@ -871,16 +871,16 @@
         <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R3" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="T3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="U3" t="n">
         <v>3.8</v>
@@ -955,7 +955,7 @@
         <v>34</v>
       </c>
       <c r="AS3" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="4">
@@ -1042,16 +1042,16 @@
         <v>2.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
         <v>11</v>
@@ -1072,7 +1072,7 @@
         <v>6</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL4" t="n">
         <v>51</v>
@@ -1084,7 +1084,7 @@
         <v>12</v>
       </c>
       <c r="AO4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP4" t="n">
         <v>26</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-24.xlsx
@@ -841,16 +841,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H3" t="n">
         <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K3" t="n">
         <v>1.95</v>
@@ -883,7 +883,7 @@
         <v>1.53</v>
       </c>
       <c r="U3" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="V3" t="n">
         <v>1.26</v>
@@ -901,10 +901,10 @@
         <v>2.38</v>
       </c>
       <c r="AA3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AC3" t="n">
         <v>8</v>
@@ -913,34 +913,34 @@
         <v>15</v>
       </c>
       <c r="AE3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG3" t="n">
         <v>34</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>29</v>
       </c>
       <c r="AH3" t="n">
         <v>41</v>
       </c>
       <c r="AI3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AJ3" t="n">
         <v>6</v>
       </c>
       <c r="AK3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL3" t="n">
         <v>67</v>
       </c>
       <c r="AM3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AN3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO3" t="n">
         <v>10</v>
@@ -952,7 +952,7 @@
         <v>21</v>
       </c>
       <c r="AR3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS3" t="n">
         <v>1250</v>
@@ -1131,13 +1131,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H5" t="n">
         <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J5" t="n">
         <v>2.75</v>
@@ -1146,7 +1146,7 @@
         <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
@@ -1192,13 +1192,13 @@
         <v>7</v>
       </c>
       <c r="AD5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE5" t="n">
         <v>9</v>
       </c>
       <c r="AF5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG5" t="n">
         <v>17</v>
@@ -1213,19 +1213,19 @@
         <v>6.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL5" t="n">
         <v>51</v>
       </c>
       <c r="AM5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AN5" t="n">
         <v>17</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP5" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-24.xlsx
@@ -1022,18 +1022,18 @@
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="X4" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="Y4" t="n">
         <v>1.5</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-24.xlsx
@@ -692,22 +692,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J2" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
         <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
@@ -716,10 +716,10 @@
         <v>10</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
         <v>1.57</v>
@@ -752,10 +752,10 @@
         <v>2.63</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AC2" t="n">
         <v>5.5</v>
@@ -764,10 +764,10 @@
         <v>5.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG2" t="n">
         <v>15</v>
@@ -776,7 +776,7 @@
         <v>41</v>
       </c>
       <c r="AI2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AJ2" t="n">
         <v>8.5</v>
@@ -788,7 +788,7 @@
         <v>101</v>
       </c>
       <c r="AM2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN2" t="n">
         <v>41</v>
@@ -803,7 +803,7 @@
         <v>67</v>
       </c>
       <c r="AR2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS2" t="n">
         <v>101</v>
@@ -841,16 +841,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H3" t="n">
         <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
         <v>1.95</v>
@@ -859,10 +859,10 @@
         <v>3.1</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.44</v>
@@ -871,22 +871,22 @@
         <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S3" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="T3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U3" t="n">
-        <v>3.75</v>
+        <v>3.15</v>
       </c>
       <c r="V3" t="n">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="W3" t="n">
         <v>4.5</v>
@@ -901,10 +901,10 @@
         <v>2.38</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AC3" t="n">
         <v>8</v>
@@ -913,34 +913,34 @@
         <v>15</v>
       </c>
       <c r="AE3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AH3" t="n">
         <v>41</v>
       </c>
       <c r="AI3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AJ3" t="n">
         <v>6</v>
       </c>
       <c r="AK3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL3" t="n">
         <v>67</v>
       </c>
       <c r="AM3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AN3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO3" t="n">
         <v>10</v>
@@ -952,10 +952,10 @@
         <v>21</v>
       </c>
       <c r="AR3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS3" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">

--- a/Jogos_da_Semana_FlashScore_2025-03-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-24.xlsx
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J2" t="n">
         <v>2</v>
@@ -707,13 +707,13 @@
         <v>2.2</v>
       </c>
       <c r="L2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N2" t="n">
         <v>8</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N2" t="n">
-        <v>10</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -752,13 +752,13 @@
         <v>2.63</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AD2" t="n">
         <v>5.5</v>
@@ -767,7 +767,7 @@
         <v>9</v>
       </c>
       <c r="AF2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG2" t="n">
         <v>15</v>
@@ -788,7 +788,7 @@
         <v>101</v>
       </c>
       <c r="AM2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN2" t="n">
         <v>41</v>
@@ -803,7 +803,7 @@
         <v>67</v>
       </c>
       <c r="AR2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS2" t="n">
         <v>101</v>
@@ -862,7 +862,7 @@
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
         <v>1.44</v>
@@ -883,10 +883,10 @@
         <v>1.57</v>
       </c>
       <c r="U3" t="n">
-        <v>3.15</v>
+        <v>3.7</v>
       </c>
       <c r="V3" t="n">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="W3" t="n">
         <v>4.5</v>
@@ -990,13 +990,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="J4" t="n">
         <v>3.5</v>
@@ -1005,7 +1005,7 @@
         <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
@@ -1022,18 +1022,18 @@
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="T4" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="X4" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="Y4" t="n">
         <v>1.5</v>
@@ -1048,16 +1048,16 @@
         <v>1.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
         <v>11</v>
       </c>
       <c r="AF4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG4" t="n">
         <v>23</v>
@@ -1072,7 +1072,7 @@
         <v>6</v>
       </c>
       <c r="AK4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
         <v>51</v>
@@ -1084,7 +1084,7 @@
         <v>12</v>
       </c>
       <c r="AO4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP4" t="n">
         <v>26</v>
@@ -1131,22 +1131,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H5" t="n">
         <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J5" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K5" t="n">
         <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
@@ -1171,10 +1171,10 @@
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="X5" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Y5" t="n">
         <v>1.44</v>
@@ -1192,13 +1192,13 @@
         <v>7</v>
       </c>
       <c r="AD5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE5" t="n">
         <v>9</v>
       </c>
       <c r="AF5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG5" t="n">
         <v>17</v>
@@ -1213,19 +1213,19 @@
         <v>6.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL5" t="n">
         <v>51</v>
       </c>
       <c r="AM5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AN5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP5" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-24.xlsx
@@ -1131,19 +1131,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I5" t="n">
         <v>3.5</v>
       </c>
-      <c r="I5" t="n">
-        <v>3.6</v>
-      </c>
       <c r="J5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K5" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L5" t="n">
         <v>4.33</v>
@@ -1163,18 +1163,18 @@
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T5" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="X5" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Y5" t="n">
         <v>1.44</v>
@@ -1207,7 +1207,7 @@
         <v>29</v>
       </c>
       <c r="AI5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ5" t="n">
         <v>6.5</v>
@@ -1219,10 +1219,10 @@
         <v>51</v>
       </c>
       <c r="AM5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AN5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO5" t="n">
         <v>13</v>
@@ -1237,7 +1237,7 @@
         <v>41</v>
       </c>
       <c r="AS5" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-03-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-24.xlsx
@@ -710,10 +710,10 @@
         <v>8.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -722,28 +722,28 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="R2" t="n">
-        <v>2.36</v>
+        <v>2.33</v>
       </c>
       <c r="S2" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="T2" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="U2" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="V2" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="X2" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Y2" t="n">
         <v>1.44</v>
@@ -871,16 +871,16 @@
         <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R3" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="S3" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="T3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="U3" t="n">
         <v>3.7</v>
@@ -1149,32 +1149,32 @@
         <v>4.33</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="T5" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="X5" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Y5" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-24.xlsx
@@ -841,22 +841,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="H3" t="n">
         <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K3" t="n">
         <v>1.95</v>
       </c>
       <c r="L3" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
@@ -871,16 +871,16 @@
         <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R3" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S3" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="T3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U3" t="n">
         <v>3.7</v>
@@ -901,52 +901,52 @@
         <v>2.38</v>
       </c>
       <c r="AA3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG3" t="n">
         <v>34</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>29</v>
       </c>
       <c r="AH3" t="n">
         <v>41</v>
       </c>
       <c r="AI3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AJ3" t="n">
         <v>6</v>
       </c>
       <c r="AK3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL3" t="n">
         <v>67</v>
       </c>
       <c r="AM3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AN3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ3" t="n">
         <v>21</v>
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
@@ -1149,10 +1149,10 @@
         <v>4.33</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
         <v>1.36</v>
@@ -1163,18 +1163,18 @@
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="T5" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="X5" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Y5" t="n">
         <v>1.44</v>
@@ -1183,13 +1183,13 @@
         <v>2.63</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD5" t="n">
         <v>9</v>
@@ -1198,16 +1198,16 @@
         <v>9</v>
       </c>
       <c r="AF5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH5" t="n">
         <v>29</v>
       </c>
       <c r="AI5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ5" t="n">
         <v>6.5</v>
@@ -1219,7 +1219,7 @@
         <v>51</v>
       </c>
       <c r="AM5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AN5" t="n">
         <v>17</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-24.xlsx
@@ -841,28 +841,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H3" t="n">
         <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
         <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
         <v>1.44</v>
@@ -871,16 +871,16 @@
         <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R3" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="T3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="U3" t="n">
         <v>3.7</v>
@@ -901,52 +901,52 @@
         <v>2.38</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AH3" t="n">
         <v>41</v>
       </c>
       <c r="AI3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AJ3" t="n">
         <v>6</v>
       </c>
       <c r="AK3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL3" t="n">
         <v>67</v>
       </c>
       <c r="AM3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AN3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO3" t="n">
         <v>9.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ3" t="n">
         <v>21</v>
@@ -990,13 +990,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J4" t="n">
         <v>3.5</v>
@@ -1005,7 +1005,7 @@
         <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
@@ -1022,18 +1022,18 @@
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="X4" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="Y4" t="n">
         <v>1.5</v>
@@ -1057,7 +1057,7 @@
         <v>11</v>
       </c>
       <c r="AF4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG4" t="n">
         <v>23</v>
@@ -1149,10 +1149,10 @@
         <v>4.33</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.36</v>
@@ -1189,10 +1189,10 @@
         <v>1.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE5" t="n">
         <v>9</v>
@@ -1219,7 +1219,7 @@
         <v>51</v>
       </c>
       <c r="AM5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AN5" t="n">
         <v>17</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-24.xlsx
@@ -728,10 +728,10 @@
         <v>2.33</v>
       </c>
       <c r="S2" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="U2" t="n">
         <v>3.05</v>
@@ -740,10 +740,10 @@
         <v>1.37</v>
       </c>
       <c r="W2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="X2" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Y2" t="n">
         <v>1.44</v>
@@ -847,22 +847,22 @@
         <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J3" t="n">
         <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
         <v>1.44</v>
@@ -871,10 +871,10 @@
         <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S3" t="n">
         <v>2.4</v>
@@ -883,10 +883,10 @@
         <v>1.53</v>
       </c>
       <c r="U3" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="V3" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W3" t="n">
         <v>4.5</v>
@@ -901,10 +901,10 @@
         <v>2.38</v>
       </c>
       <c r="AA3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AC3" t="n">
         <v>8</v>
@@ -925,13 +925,13 @@
         <v>41</v>
       </c>
       <c r="AI3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AJ3" t="n">
         <v>6</v>
       </c>
       <c r="AK3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL3" t="n">
         <v>67</v>
@@ -943,7 +943,7 @@
         <v>9.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP3" t="n">
         <v>21</v>
@@ -952,10 +952,10 @@
         <v>21</v>
       </c>
       <c r="AR3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS3" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="4">
@@ -996,13 +996,13 @@
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J4" t="n">
         <v>3.5</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L4" t="n">
         <v>3.4</v>
@@ -1022,30 +1022,30 @@
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="T4" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="X4" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AC4" t="n">
         <v>7.5</v>
@@ -1060,13 +1060,13 @@
         <v>29</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AJ4" t="n">
         <v>6</v>
@@ -1078,7 +1078,7 @@
         <v>51</v>
       </c>
       <c r="AM4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AN4" t="n">
         <v>12</v>
@@ -1093,7 +1093,7 @@
         <v>23</v>
       </c>
       <c r="AR4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS4" t="n">
         <v>351</v>
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
@@ -1152,13 +1152,13 @@
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
@@ -1183,31 +1183,31 @@
         <v>2.63</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AC5" t="n">
         <v>7</v>
       </c>
       <c r="AD5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE5" t="n">
         <v>9</v>
       </c>
       <c r="AF5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH5" t="n">
         <v>29</v>
       </c>
       <c r="AI5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ5" t="n">
         <v>6.5</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS5"/>
+  <dimension ref="A1:AS7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -961,7 +961,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>OOtOh7CU</t>
+          <t>ruMjnUSk</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -971,138 +971,134 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PARAGUAY - COPA DE PRIMERA</t>
+          <t>COLOMBIA - PRIMERA B</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Atl. Tembetary</t>
+          <t>Bogota</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ameliano</t>
+          <t>Patriotas</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="I4" t="n">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="K4" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8</v>
-      </c>
+        <v>2.37</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="P4" t="n">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
-        <v>2.25</v>
+        <v>1.93</v>
       </c>
       <c r="T4" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="n">
-        <v>4</v>
+        <v>3.15</v>
       </c>
       <c r="X4" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="AA4" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.5</v>
+        <v>11.75</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AE4" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AF4" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AR4" t="n">
         <v>29</v>
       </c>
-      <c r="AG4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>41</v>
-      </c>
       <c r="AS4" t="n">
-        <v>351</v>
+        <v>700</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>StqyJyjD</t>
+          <t>WvRAeY53</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1112,131 +1108,409 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>22:20</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>COLOMBIA - PRIMERA B</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Leones</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Real Cundinamarca</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>3.5</v>
+        <v>2.87</v>
       </c>
       <c r="J5" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="K5" t="n">
         <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N5" t="n">
-        <v>9</v>
-      </c>
+        <v>3.45</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T5" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>3.75</v>
+        <v>2.95</v>
       </c>
       <c r="X5" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.63</v>
+        <v>2.52</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="AC5" t="n">
-        <v>7</v>
+        <v>8.25</v>
       </c>
       <c r="AD5" t="n">
-        <v>9</v>
+        <v>11.75</v>
       </c>
       <c r="AE5" t="n">
         <v>9</v>
       </c>
       <c r="AF5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>35</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>25</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>OOtOh7CU</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>24/03/2025</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>PARAGUAY - COPA DE PRIMERA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Atl. Tembetary</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ameliano</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="n">
+        <v>4</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK6" t="n">
         <v>17</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AL6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>StqyJyjD</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>24/03/2025</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Zaragoza</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cordoba</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N7" t="n">
+        <v>9</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF7" t="n">
         <v>17</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AG7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH7" t="n">
         <v>29</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI7" t="n">
         <v>9</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ7" t="n">
         <v>6.5</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK7" t="n">
         <v>17</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL7" t="n">
         <v>51</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM7" t="n">
         <v>9.5</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN7" t="n">
         <v>17</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO7" t="n">
         <v>13</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP7" t="n">
         <v>41</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ7" t="n">
         <v>29</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR7" t="n">
         <v>41</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS7" t="n">
         <v>351</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2025-03-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-24.xlsx
@@ -728,10 +728,10 @@
         <v>2.33</v>
       </c>
       <c r="S2" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="T2" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="U2" t="n">
         <v>3.05</v>
@@ -740,10 +740,10 @@
         <v>1.37</v>
       </c>
       <c r="W2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="X2" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Y2" t="n">
         <v>1.44</v>
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H3" t="n">
         <v>3.2</v>
@@ -850,7 +850,7 @@
         <v>2.25</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K3" t="n">
         <v>1.95</v>
@@ -859,10 +859,10 @@
         <v>3.1</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
         <v>1.44</v>
@@ -871,10 +871,10 @@
         <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R3" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
         <v>2.4</v>
@@ -883,10 +883,10 @@
         <v>1.53</v>
       </c>
       <c r="U3" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="V3" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W3" t="n">
         <v>4.5</v>
@@ -913,13 +913,13 @@
         <v>15</v>
       </c>
       <c r="AE3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG3" t="n">
         <v>34</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>29</v>
       </c>
       <c r="AH3" t="n">
         <v>41</v>
@@ -937,7 +937,7 @@
         <v>67</v>
       </c>
       <c r="AM3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AN3" t="n">
         <v>9.5</v>
@@ -1296,18 +1296,18 @@
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="X6" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="Y6" t="n">
         <v>1.53</v>
@@ -1405,7 +1405,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H7" t="n">
         <v>3.4</v>
@@ -1466,13 +1466,13 @@
         <v>7</v>
       </c>
       <c r="AD7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE7" t="n">
         <v>9</v>
       </c>
       <c r="AF7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG7" t="n">
         <v>17</v>
@@ -1511,7 +1511,7 @@
         <v>41</v>
       </c>
       <c r="AS7" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-03-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS7"/>
+  <dimension ref="A1:AS5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,10 +722,10 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R2" t="n">
-        <v>2.33</v>
+        <v>2.29</v>
       </c>
       <c r="S2" t="n">
         <v>2.15</v>
@@ -734,10 +734,10 @@
         <v>1.67</v>
       </c>
       <c r="U2" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="W2" t="n">
         <v>4</v>
@@ -955,13 +955,13 @@
         <v>41</v>
       </c>
       <c r="AS3" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ruMjnUSk</t>
+          <t>OOtOh7CU</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -971,134 +971,138 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA B</t>
+          <t>PARAGUAY - COPA DE PRIMERA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Bogota</t>
+          <t>Atl. Tembetary</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Patriotas</t>
+          <t>Ameliano</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="H4" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="J4" t="n">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="K4" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+        <v>3.4</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8</v>
+      </c>
       <c r="O4" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
-        <v>1.93</v>
+        <v>2.3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="n">
-        <v>3.15</v>
+        <v>4.33</v>
       </c>
       <c r="X4" t="n">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="AC4" t="n">
-        <v>11.75</v>
+        <v>7.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AF4" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="AH4" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AI4" t="n">
-        <v>8.75</v>
+        <v>7.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="AK4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AM4" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="AN4" t="n">
-        <v>7.8</v>
+        <v>12</v>
       </c>
       <c r="AO4" t="n">
-        <v>8.25</v>
+        <v>11</v>
       </c>
       <c r="AP4" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="AQ4" t="n">
-        <v>14.5</v>
+        <v>23</v>
       </c>
       <c r="AR4" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AS4" t="n">
-        <v>700</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>WvRAeY53</t>
+          <t>StqyJyjD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1108,46 +1112,50 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>22:20</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA B</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Leones</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Real Cundinamarca</t>
+          <t>Cordoba</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.87</v>
+        <v>3.2</v>
       </c>
       <c r="J5" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
         <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
         <v>3</v>
@@ -1155,363 +1163,81 @@
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="T5" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>2.95</v>
+        <v>4</v>
       </c>
       <c r="X5" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.65</v>
+        <v>1.91</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.25</v>
+        <v>7</v>
       </c>
       <c r="AD5" t="n">
-        <v>11.75</v>
+        <v>10</v>
       </c>
       <c r="AE5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AG5" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AH5" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="AI5" t="n">
-        <v>9.75</v>
+        <v>8.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="AL5" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AM5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AN5" t="n">
         <v>15</v>
       </c>
       <c r="AO5" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AP5" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AQ5" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AR5" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="AS5" t="n">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>OOtOh7CU</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>24/03/2025</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>PARAGUAY - COPA DE PRIMERA</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Atl. Tembetary</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Ameliano</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N6" t="n">
-        <v>8</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS6" t="n">
         <v>351</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>StqyJyjD</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>24/03/2025</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SPAIN - LALIGA2</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Zaragoza</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Cordoba</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N7" t="n">
-        <v>9</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="X7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-03-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-24.xlsx
@@ -737,7 +737,7 @@
         <v>3.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W2" t="n">
         <v>4</v>
@@ -841,16 +841,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
         <v>1.95</v>
@@ -883,7 +883,7 @@
         <v>1.53</v>
       </c>
       <c r="U3" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="V3" t="n">
         <v>1.25</v>
@@ -895,10 +895,10 @@
         <v>1.18</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AA3" t="n">
         <v>2.1</v>
@@ -916,7 +916,7 @@
         <v>13</v>
       </c>
       <c r="AF3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG3" t="n">
         <v>34</v>
@@ -1022,10 +1022,10 @@
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="T4" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
@@ -1131,28 +1131,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="H5" t="n">
         <v>3.3</v>
       </c>
       <c r="I5" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J5" t="n">
         <v>3.2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3</v>
       </c>
       <c r="K5" t="n">
         <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.36</v>
@@ -1177,31 +1177,31 @@
         <v>1.22</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AC5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE5" t="n">
         <v>10</v>
       </c>
-      <c r="AE5" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AF5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG5" t="n">
         <v>21</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>19</v>
       </c>
       <c r="AH5" t="n">
         <v>34</v>
@@ -1213,7 +1213,7 @@
         <v>6.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL5" t="n">
         <v>51</v>
@@ -1222,22 +1222,22 @@
         <v>8.5</v>
       </c>
       <c r="AN5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR5" t="n">
         <v>34</v>
       </c>
-      <c r="AQ5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>41</v>
-      </c>
       <c r="AS5" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-03-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-24.xlsx
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H2" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K2" t="n">
         <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
         <v>1.36</v>
@@ -728,10 +728,10 @@
         <v>2.29</v>
       </c>
       <c r="S2" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="U2" t="n">
         <v>3.1</v>
@@ -740,10 +740,10 @@
         <v>1.36</v>
       </c>
       <c r="W2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="X2" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Y2" t="n">
         <v>1.44</v>
@@ -764,7 +764,7 @@
         <v>5.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF2" t="n">
         <v>8.5</v>
@@ -782,7 +782,7 @@
         <v>8.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL2" t="n">
         <v>101</v>
@@ -794,13 +794,13 @@
         <v>41</v>
       </c>
       <c r="AO2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AQ2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR2" t="n">
         <v>81</v>
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
         <v>2.3</v>
@@ -859,10 +859,10 @@
         <v>3.1</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.44</v>
@@ -883,7 +883,7 @@
         <v>1.53</v>
       </c>
       <c r="U3" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="V3" t="n">
         <v>1.25</v>
@@ -895,19 +895,19 @@
         <v>1.18</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD3" t="n">
         <v>15</v>
@@ -916,7 +916,7 @@
         <v>13</v>
       </c>
       <c r="AF3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG3" t="n">
         <v>34</v>
@@ -925,22 +925,22 @@
         <v>41</v>
       </c>
       <c r="AI3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AJ3" t="n">
         <v>6</v>
       </c>
       <c r="AK3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL3" t="n">
         <v>67</v>
       </c>
       <c r="AM3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AN3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO3" t="n">
         <v>10</v>
@@ -990,22 +990,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K4" t="n">
         <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
@@ -1014,26 +1014,30 @@
         <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
+        <v>2.63</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2</v>
+      </c>
       <c r="S4" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="T4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="X4" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="Y4" t="n">
         <v>1.53</v>
@@ -1048,7 +1052,7 @@
         <v>1.73</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD4" t="n">
         <v>12</v>
@@ -1057,10 +1061,10 @@
         <v>11</v>
       </c>
       <c r="AF4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH4" t="n">
         <v>41</v>
@@ -1075,22 +1079,22 @@
         <v>17</v>
       </c>
       <c r="AL4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AN4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO4" t="n">
         <v>11</v>
       </c>
       <c r="AP4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ4" t="n">
         <v>26</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>23</v>
       </c>
       <c r="AR4" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-24.xlsx
@@ -844,25 +844,25 @@
         <v>3.4</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I3" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J3" t="n">
         <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
         <v>1.44</v>
@@ -871,43 +871,43 @@
         <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U3" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="V3" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W3" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="X3" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AA3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
         <v>15</v>
@@ -916,7 +916,7 @@
         <v>13</v>
       </c>
       <c r="AF3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG3" t="n">
         <v>34</v>
@@ -937,7 +937,7 @@
         <v>67</v>
       </c>
       <c r="AM3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AN3" t="n">
         <v>10</v>
@@ -949,7 +949,7 @@
         <v>21</v>
       </c>
       <c r="AQ3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR3" t="n">
         <v>41</v>
